--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
   <si>
     <t>Name</t>
   </si>
@@ -114,16 +114,40 @@
     <t>SkcriptProcess</t>
   </si>
   <si>
-    <t>MacrofilePath</t>
-  </si>
-  <si>
     <t>ExcelfilePath</t>
   </si>
   <si>
-    <t>Data\Input\MacroFile.xlsm</t>
-  </si>
-  <si>
     <t>Data\Input\Emp Payroll.xlsx</t>
+  </si>
+  <si>
+    <t>MacrofilePathConsolidation</t>
+  </si>
+  <si>
+    <t>MacrofilePathValidation</t>
+  </si>
+  <si>
+    <t>Data\Input\Consolidation\Consolidation.xlsm</t>
+  </si>
+  <si>
+    <t>Data\Input\Validation\Validation.xlsm</t>
+  </si>
+  <si>
+    <t>ConsolidationfilePath</t>
+  </si>
+  <si>
+    <t>Data\Input\Consolidation\Emp Payroll.xlsx</t>
+  </si>
+  <si>
+    <t>Validationfile1Path</t>
+  </si>
+  <si>
+    <t>Data\Input\Validation\System1.xlsx</t>
+  </si>
+  <si>
+    <t>Validationfile2Path</t>
+  </si>
+  <si>
+    <t>Data\Input\Validation\System2.xlsx</t>
   </si>
 </sst>
 </file>
@@ -504,7 +528,7 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -562,10 +586,10 @@
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
       <c r="A3" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="30">
@@ -581,18 +605,52 @@
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1">
       <c r="A5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="5" t="s">
+    </row>
+    <row r="6" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A6" s="5" t="s">
         <v>34</v>
       </c>
+      <c r="B6" s="5" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="7" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A9" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+    </row>
+    <row r="11" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+    </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
